--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712837.7145774771</v>
+        <v>743325.0962870761</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12382462.23728436</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5739665.974240759</v>
+        <v>5743063.989422211</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9692438.925652731</v>
+        <v>9691029.081544187</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>332.7913199660463</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>209.8685059222812</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269744</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>111.8323952847931</v>
+        <v>103.3387326418235</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>189.7185254440902</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>276.1040475302547</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705217</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>46.24535164077528</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>51.84023172973257</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>318.2339086633606</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,22 +1186,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>230.3041514522973</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>85.91744262916043</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1347,7 +1347,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>176.1146791460092</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,16 +1381,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
-        <v>119.003327713286</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>106.0637357542543</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851113</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247739</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734116405</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>100.4748474648632</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>4.886619613581993</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>301.6716750929704</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>131.4477066762141</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824772</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>63.72703424640871</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>326.7852651232236</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>143.4939106547678</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>63.72703424640825</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>18.67884935746566</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>252.1815824390002</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>205.6368254889311</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.487334137518219</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>90.41948680756566</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>378.8302941196496</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.2928440354814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>96.02901158147526</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.70108330683</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377.216940304131</v>
+        <v>119.1208585623855</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2730,7 +2730,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>34.98723076369722</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>106.1315715572499</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>323.5668830180521</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,13 +2848,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>341.4317916655623</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>98.80399951402445</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6898441249713</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>200.1365534425732</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>260.8767548402199</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>51.06561173382029</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.4642351393303</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>177.6065387483027</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>192.2052874138386</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3325,7 +3325,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>88.23797643592249</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>136.963195123276</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>43.56973891764739</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>10.742978998509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>154.626861758298</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>266.0283717037996</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>115.8995576144844</v>
+        <v>61.26635328439252</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>15.07437110675894</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>300.4879207856022</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>287.7389673565029</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>37.38100496017476</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1214.090290083874</v>
+        <v>1844.676600992464</v>
       </c>
       <c r="C2" t="n">
-        <v>1214.090290083874</v>
+        <v>1475.714084052052</v>
       </c>
       <c r="D2" t="n">
-        <v>1214.090290083874</v>
+        <v>1475.714084052052</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>1089.925831453808</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>678.9399266642004</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>263.2351763884892</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800313</v>
@@ -4333,19 +4333,19 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872918</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
         <v>2360.886721764998</v>
@@ -4363,19 +4363,19 @@
         <v>2562.339328400156</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664336</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320765</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="W2" t="n">
-        <v>1977.695380320765</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="X2" t="n">
-        <v>1604.229622059685</v>
+        <v>2231.276441056586</v>
       </c>
       <c r="Y2" t="n">
-        <v>1214.090290083874</v>
+        <v>2231.276441056586</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>165.4432786182532</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800313</v>
@@ -4415,22 +4415,22 @@
         <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>593.0223835625334</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>956.2844025217537</v>
       </c>
       <c r="N3" t="n">
         <v>1343.569531118699</v>
       </c>
       <c r="O3" t="n">
-        <v>1675.639966294861</v>
+        <v>1676.586023648285</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710447</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400156</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>609.1284824998273</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="C4" t="n">
-        <v>609.1284824998273</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="D4" t="n">
-        <v>459.0118430874916</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="E4" t="n">
-        <v>311.0987495050985</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="F4" t="n">
-        <v>164.2088020071881</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800313</v>
@@ -4488,10 +4488,10 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
         <v>523.6376499693235</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.720553932932</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>673.0360657270452</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>383.6188956900846</v>
       </c>
       <c r="X4" t="n">
-        <v>829.9210616433575</v>
+        <v>155.6293447920672</v>
       </c>
       <c r="Y4" t="n">
-        <v>609.1284824998273</v>
+        <v>155.6293447920672</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1110.08818560131</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="C5" t="n">
-        <v>741.1256686608983</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>741.1256686608983</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>741.1256686608983</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>330.1397638712908</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="U5" t="n">
         <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847236</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577122</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577122</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="Y5" t="n">
-        <v>1110.08818560131</v>
+        <v>2184.059060190807</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488059</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756909</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.6740181205811</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605191</v>
+        <v>590.2049751143511</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919908</v>
+        <v>884.908532145823</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.935112151211</v>
+        <v>1248.170551105043</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748156</v>
+        <v>1635.455679701988</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924318</v>
+        <v>1967.52611487815</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756615</v>
+        <v>2214.708848710447</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W6" t="n">
         <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.5881086072308</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="C7" t="n">
-        <v>393.5881086072308</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="D7" t="n">
-        <v>346.8756322024072</v>
+        <v>420.3360198302917</v>
       </c>
       <c r="E7" t="n">
-        <v>346.8756322024072</v>
+        <v>420.3360198302917</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372449</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354878</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374705</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="Y7" t="n">
-        <v>575.2365734374705</v>
+        <v>570.4526592426274</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1585.174086820819</v>
+        <v>1246.899958573734</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.174086820819</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E8" t="n">
         <v>877.9374416333219</v>
@@ -4795,25 +4795,25 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816077</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796631</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.313418796631</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.313418796631</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.313418796631</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1585.174086820819</v>
+        <v>1246.899958573734</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,37 +4871,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605191</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919908</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505111</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.24678656800313</v>
+        <v>559.7133592494375</v>
       </c>
       <c r="C10" t="n">
-        <v>51.24678656800313</v>
+        <v>390.7771763215306</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800313</v>
+        <v>390.7771763215306</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>390.7771763215306</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>243.8872288236203</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>243.8872288236203</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312202</v>
@@ -4971,7 +4971,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>936.3618696456771</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>681.6773814397902</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="W10" t="n">
-        <v>681.6773814397902</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6878305417729</v>
+        <v>962.1544032232074</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8952513982428</v>
+        <v>741.3618240796773</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1944.904841306683</v>
+        <v>1576.230539455013</v>
       </c>
       <c r="C11" t="n">
-        <v>1575.942324366272</v>
+        <v>1207.268022514601</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1207.268022514601</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>821.4797699163568</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.4797699163568</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.3950511722217</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218346</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296688</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052371</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609173</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136268</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136268</v>
+        <v>2994.194385163531</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136268</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V11" t="n">
-        <v>3095.109771607697</v>
+        <v>2409.600039606666</v>
       </c>
       <c r="W11" t="n">
-        <v>3095.109771607697</v>
+        <v>2056.831384336551</v>
       </c>
       <c r="X11" t="n">
-        <v>2721.644013346617</v>
+        <v>1683.365626075471</v>
       </c>
       <c r="Y11" t="n">
-        <v>2331.504681370805</v>
+        <v>1576.230539455013</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228009</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158138</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992585</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.91239341064</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886743</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533343</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>550.0410834832818</v>
+        <v>680.0717849700656</v>
       </c>
       <c r="C13" t="n">
-        <v>381.1049005553749</v>
+        <v>511.1356020421587</v>
       </c>
       <c r="D13" t="n">
-        <v>381.1049005553749</v>
+        <v>361.0189626298229</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553749</v>
+        <v>213.1058690474298</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218346</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279956</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764919</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760409</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1699.861054503353</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783663</v>
+        <v>1410.757887450811</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577776</v>
+        <v>1156.073399244925</v>
       </c>
       <c r="W13" t="n">
-        <v>872.3234075408152</v>
+        <v>866.6562292079639</v>
       </c>
       <c r="X13" t="n">
-        <v>770.8336626268119</v>
+        <v>866.6562292079639</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.0410834832818</v>
+        <v>861.7202498003053</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2024.960096412931</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C14" t="n">
-        <v>1655.99757947252</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D14" t="n">
-        <v>1297.731880865769</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>911.9436282675249</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
         <v>66.51211643218343</v>
@@ -5281,13 +5281,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>2788.565186649823</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W14" t="n">
-        <v>2788.565186649823</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X14" t="n">
-        <v>2415.099428388743</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y14" t="n">
-        <v>2024.960096412931</v>
+        <v>1952.040104645724</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
@@ -5360,25 +5360,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>231.8553933260938</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>231.8553933260938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>231.8553933260938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>231.8553933260938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>231.8553933260938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218343</v>
@@ -5439,16 +5439,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y16" t="n">
-        <v>231.8553933260938</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.335336125843</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C17" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D17" t="n">
-        <v>867.3728191854311</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5533,34 +5533,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3070.371809040541</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V17" t="n">
-        <v>2739.308921696971</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W17" t="n">
-        <v>2386.540266426856</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="X17" t="n">
-        <v>2013.074508165776</v>
+        <v>2367.546699278357</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.935176189965</v>
+        <v>1977.407367302545</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124869</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1645.778206672848</v>
+        <v>1862.923806425454</v>
       </c>
       <c r="U19" t="n">
-        <v>1645.778206672848</v>
+        <v>1573.820939551098</v>
       </c>
       <c r="V19" t="n">
-        <v>1391.093718466961</v>
+        <v>1319.136451345211</v>
       </c>
       <c r="W19" t="n">
-        <v>1101.67654843</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.35562273557</v>
+        <v>1891.353293732295</v>
       </c>
       <c r="C20" t="n">
-        <v>1320.35562273557</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W20" t="n">
-        <v>2470.560553036583</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X20" t="n">
-        <v>2097.094794775503</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y20" t="n">
-        <v>1706.955462799692</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="21">
@@ -5822,22 +5822,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="C22" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="D22" t="n">
-        <v>452.6479724696239</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E22" t="n">
-        <v>304.7348788872308</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>157.8449313893205</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W22" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X22" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y22" t="n">
-        <v>452.6479724696239</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1934.181533884357</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1565.219016943946</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.953318337195</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>821.1650657389509</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
@@ -6022,19 +6022,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W23" t="n">
-        <v>2994.542934265601</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X23" t="n">
-        <v>2621.077176004521</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.781373948479</v>
+        <v>2388.243802269322</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D24" t="n">
         <v>618.1564155387305</v>
@@ -6056,46 +6056,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
         <v>2242.828302297192</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>459.8449442241111</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>309.7283048117754</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>309.7283048117754</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>309.7283048117754</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6174,25 +6174,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1161.740577577775</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1161.740577577775</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1161.740577577775</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.71928130825</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1133.32083113111</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C26" t="n">
-        <v>764.3583141906979</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D26" t="n">
-        <v>406.0926155839475</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E26" t="n">
         <v>406.0926155839475</v>
@@ -6223,55 +6223,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W26" t="n">
-        <v>2277.953133796416</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X26" t="n">
-        <v>1904.487375535336</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y26" t="n">
-        <v>1514.348043559525</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="27">
@@ -6296,16 +6296,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U28" t="n">
-        <v>1513.842048484845</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.501411349798</v>
+        <v>1361.01298720966</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.501411349798</v>
+        <v>1253.809379576074</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>1025.819828678057</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>1025.819828678057</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1506.36381994936</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C29" t="n">
-        <v>1137.401303008948</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D29" t="n">
-        <v>779.1356044021975</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>393.3473518039532</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U29" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.568750250373</v>
+        <v>2410.926331152342</v>
       </c>
       <c r="X29" t="n">
-        <v>2283.102991989293</v>
+        <v>2037.460572891262</v>
       </c>
       <c r="Y29" t="n">
-        <v>1892.963660013481</v>
+        <v>1647.321240915451</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.8553933260938</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C31" t="n">
-        <v>231.8553933260938</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D31" t="n">
-        <v>231.8553933260938</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E31" t="n">
-        <v>231.8553933260938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>231.8553933260938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>1094.090022971289</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1514.348043559525</v>
+        <v>1480.516858765517</v>
       </c>
       <c r="C32" t="n">
-        <v>1514.348043559525</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>1156.082344952774</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
         <v>892.5704713767946</v>
@@ -6691,19 +6691,19 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6712,16 +6712,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
         <v>3325.60582160917</v>
@@ -6736,16 +6736,16 @@
         <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2257.25603080545</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559525</v>
+        <v>1867.116698829639</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
         <v>2407.411984886741</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>533.4780323548191</v>
+        <v>701.1808689801002</v>
       </c>
       <c r="C34" t="n">
-        <v>364.5418494269122</v>
+        <v>532.2446860521933</v>
       </c>
       <c r="D34" t="n">
-        <v>214.4252100145765</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
         <v>315.6219318279954</v>
@@ -6888,22 +6888,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1875.713122094735</v>
       </c>
       <c r="V34" t="n">
-        <v>1383.507193008249</v>
+        <v>1621.028633888848</v>
       </c>
       <c r="W34" t="n">
-        <v>1094.090022971289</v>
+        <v>1331.611463851887</v>
       </c>
       <c r="X34" t="n">
-        <v>866.1004720732712</v>
+        <v>1103.62191295387</v>
       </c>
       <c r="Y34" t="n">
-        <v>715.1264971850588</v>
+        <v>882.8293338103399</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1753.263343671912</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C35" t="n">
-        <v>1384.300826731501</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D35" t="n">
-        <v>1384.300826731501</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E35" t="n">
-        <v>1190.154071768027</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F35" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6949,40 +6949,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2866.097597267228</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2513.328941997114</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y35" t="n">
-        <v>2139.863183736034</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7022,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>452.6479724696239</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C37" t="n">
-        <v>452.6479724696239</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D37" t="n">
-        <v>302.5313330572882</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300937</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
         <v>315.6219318279954</v>
@@ -7137,10 +7137,10 @@
         <v>680.6375233676413</v>
       </c>
       <c r="X37" t="n">
-        <v>452.6479724696239</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y37" t="n">
-        <v>452.6479724696239</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>877.7606185890727</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2403.038273524211</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7259,7 +7259,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7359,25 +7359,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1681.275341595215</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1392.172474720858</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="V40" t="n">
-        <v>1137.487986514971</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W40" t="n">
-        <v>848.0708164780106</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X40" t="n">
-        <v>848.0708164780106</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="C41" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U41" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X41" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.624422581789</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
         <v>2407.411984886741</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C43" t="n">
-        <v>66.5121164321834</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>81.7387539137581</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7599,22 +7599,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W43" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X43" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1944.904841306683</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C44" t="n">
-        <v>1575.942324366272</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.942324366272</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E44" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F44" t="n">
-        <v>779.1681669784198</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="G44" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>2671.139254837878</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>2318.370599567763</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>1944.904841306683</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1944.904841306683</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1697.850073046456</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1408.747206172099</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1154.062717966212</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>864.6455479292516</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>636.6559970312343</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8634178877041</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.9556134883068808</v>
       </c>
       <c r="P3" t="n">
-        <v>294.8344935184737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780655</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111066</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>154.0169020165183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-9.023892744153272e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>49.13905010621551</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22564,7 +22564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>91.15004664012417</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247044</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22710,16 +22710,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>54.47420476001108</v>
+        <v>62.96786740298073</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -22755,16 +22755,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>175.5543663269174</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>135.4436552426993</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,16 +22843,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22941,22 +22941,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>102.3701213774371</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>93.58081629319867</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22989,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,10 +23004,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,13 +23023,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>36.44913295732232</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>155.9337872037563</v>
       </c>
     </row>
     <row r="9">
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,16 +23190,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>61.33406652596841</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>110.1124749751914</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292587</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>208.7489307568489</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>280.1742029017993</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983806</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>125.2348079241739</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.6980337385128</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>81.06216657051016</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>275.4283390654974</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.335964134056951</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>155.8219150297605</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>55.94857654025702</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>107.5012613041342</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>155.8219150297609</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>207.0308060315715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>113.0913093320074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>143.6041432284819</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>147.1281388806941</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>75.60632145146256</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>3.903547543830996</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>88.94509462057221</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>69.99679667755296</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.8835700452648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.516901359349561</v>
+        <v>263.6129831010951</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24496,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>217.1504125601308</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>180.3914267793411</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>83.30916272365931</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>7.809177051850725</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>81.02798066791284</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.335964134056923</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1363383284343</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>121.0536152320419</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,10 +25128,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>168.4833375423489</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.12041821276452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>205.1273029151779</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>189.7250826584232</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>58.19598621064668</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>81.62145822881877</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>321.7031528533602</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>375.4949596575446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>64.92208751787123</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>20.18346650181331</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>270.3383810415692</v>
+        <v>324.971585371661</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>110.4338048678513</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>40.01329111363202</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>182.1679443159944</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>776970.4433869658</v>
+        <v>776970.4433869657</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>776970.4433869657</v>
+        <v>776970.4433869659</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>776970.4433869658</v>
+        <v>776970.4433869657</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>858592.1870774255</v>
+        <v>857006.3041941118</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>858592.1870774253</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>858592.1870774251</v>
+        <v>858592.1870774252</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>858592.1870774254</v>
+        <v>858592.1870774251</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>858592.187077425</v>
+        <v>858592.1870774253</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>305971.6304943088</v>
       </c>
       <c r="D2" t="n">
         <v>305971.6304943087</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709208</v>
+        <v>340317.4959346298</v>
       </c>
       <c r="F2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="G2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="G2" t="n">
-        <v>340997.0989709207</v>
-      </c>
       <c r="H2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="I2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="I2" t="n">
-        <v>340997.0989709207</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="K2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="L2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709205</v>
@@ -26355,7 +26355,7 @@
         <v>340997.0989709206</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709204</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.979817191</v>
+        <v>178540.1976648851</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953195</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099827</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>46629.60392417252</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503280246</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>12563.18241499341</v>
       </c>
       <c r="C4" t="n">
+        <v>12563.18241499342</v>
+      </c>
+      <c r="D4" t="n">
         <v>12563.18241499341</v>
       </c>
-      <c r="D4" t="n">
-        <v>12563.1824149934</v>
-      </c>
       <c r="E4" t="n">
-        <v>6720.683277029919</v>
+        <v>6831.225347237272</v>
       </c>
       <c r="F4" t="n">
+        <v>6720.683277029928</v>
+      </c>
+      <c r="G4" t="n">
         <v>6720.683277029938</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6720.683277029928</v>
       </c>
       <c r="H4" t="n">
         <v>6720.683277029938</v>
@@ -26444,7 +26444,7 @@
         <v>6720.683277029938</v>
       </c>
       <c r="K4" t="n">
-        <v>6720.68327702992</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="L4" t="n">
         <v>6720.683277029938</v>
@@ -26472,31 +26472,31 @@
         <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139334</v>
+        <v>74015.36825377264</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.34056139331</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26508,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-919508.5706583411</v>
+        <v>-914803.8542086388</v>
       </c>
       <c r="C6" t="n">
-        <v>195243.2129175789</v>
+        <v>199947.9293672815</v>
       </c>
       <c r="D6" t="n">
-        <v>195243.2129175789</v>
+        <v>199947.9293672815</v>
       </c>
       <c r="E6" t="n">
-        <v>74420.90601724551</v>
+        <v>80579.68772374722</v>
       </c>
       <c r="F6" t="n">
-        <v>256493.8858344367</v>
+        <v>256173.4457297382</v>
       </c>
       <c r="G6" t="n">
-        <v>256493.8858344362</v>
+        <v>259622.4562026913</v>
       </c>
       <c r="H6" t="n">
-        <v>256493.8858344364</v>
+        <v>259622.4562026912</v>
       </c>
       <c r="I6" t="n">
-        <v>256493.8858344364</v>
+        <v>259622.4562026912</v>
       </c>
       <c r="J6" t="n">
-        <v>88888.70802445384</v>
+        <v>92017.27839270869</v>
       </c>
       <c r="K6" t="n">
-        <v>256493.8858344362</v>
+        <v>259622.4562026913</v>
       </c>
       <c r="L6" t="n">
-        <v>256493.8858344363</v>
+        <v>259622.4562026913</v>
       </c>
       <c r="M6" t="n">
-        <v>208941.6200410212</v>
+        <v>212992.8522785188</v>
       </c>
       <c r="N6" t="n">
-        <v>256493.8858344363</v>
+        <v>258715.6296523631</v>
       </c>
       <c r="O6" t="n">
-        <v>256493.8858344363</v>
+        <v>259622.4562026912</v>
       </c>
       <c r="P6" t="n">
-        <v>256493.8858344364</v>
+        <v>259622.4562026911</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
+        <v>1086.755407162287</v>
+      </c>
+      <c r="F3" t="n">
         <v>1089.776700593299</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26792,46 +26792,46 @@
         <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022933</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757594</v>
+        <v>152.6905150447475</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022542</v>
+        <v>187.1141872689543</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>187.1141872689544</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>187.1141872689543</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299705</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M2" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,22 +31126,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405676</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31202,19 +31202,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
         <v>264.0341136849628</v>
@@ -31226,22 +31226,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,28 +31521,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31557,7 +31557,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31606,10 +31606,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31618,7 +31618,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.3810118616816</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>44.8670377284467</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003813</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623196</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574997</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095027</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099062</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746416</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781692</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806955</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752261</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353159</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138798</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233477</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837927</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970252</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987488</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238318</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898503</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742022</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297391</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098821</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316434</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.3612387071222</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112299</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34465,7 +34465,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M2" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091748</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P3" t="n">
-        <v>544.514022642006</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34874,10 +34874,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560635</v>
+        <v>355.3309544215504</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378503</v>
@@ -35035,10 +35035,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419612</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,16 +35254,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>520.9482342985589</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000391</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
         <v>335.4246819961231</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35339,7 +35339,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554007</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923324</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129117</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882195</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193721</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037197</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222489</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597719</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609569</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013294</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004594</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525808</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859627</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127273</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789371</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38113,7 +38113,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
